--- a/excel/hongdae_processed.xlsx
+++ b/excel/hongdae_processed.xlsx
@@ -538,200 +538,200 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>김씨육면</t>
+          <t>백팩커스파티&amp;빨래살롱</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>국수</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.66</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 28-7 1층</t>
+          <t>서울 마포구 월드컵로8길 37-7 1층 카페</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11:30-21:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11:30-21:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>11:30-21:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>11:30-23:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>11:30-23:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>11:30-23:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>11:30-17:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0507-1336-0313</t>
+          <t>0507-1403-2190</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>홍대씨부엉</t>
+          <t>토끼다이닝</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>떡볶이</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.66</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>163</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로21길 28-6</t>
+          <t>서울 마포구 독막로5길 5 2층</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-26:00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-26:00</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0507-1378-5253</t>
+          <t>0507-1375-2431</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>붉은낙타</t>
+          <t>배터리88 2호점 홍대입구역점</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1051,199 +1051,199 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>서울 마포구 잔다리로 20-11 1층 붉은낙타</t>
+          <t>서울 마포구 어울마당로5길 46 1층 서교주담 합정</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>17:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>17:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>070-4833-5965</t>
+          <t>0507-1371-9555</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>배터리88 2호점 홍대입구역점</t>
+          <t>맥주왕명주</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4.73</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로 134 1층</t>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0507-1371-9555</t>
+          <t>0507-1332-9305</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>맥주왕명주</t>
+          <t>붉은낙타</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -1256,82 +1256,82 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0507-1332-9305</t>
+          <t>070-4833-5965</t>
         </is>
       </c>
     </row>
@@ -1347,16 +1347,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.73</v>
+        <v>4.45</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+          <t>서울 마포구 서강로9길 60 산울림1992</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1438,7 +1438,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>썬키친</t>
+          <t>훈민정음 서울합정점</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1451,17 +1451,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>서울 마포구 서강로9길 60 산울림1992</t>
+          <t>서울 마포구 독막로7길 21</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1471,57 +1471,57 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>16:00-28:00</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>16:00-28:00</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1531,14 +1531,14 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0507-1338-4681</t>
+          <t>02-336-1447</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>훈민정음 서울합정점</t>
+          <t>썬키친</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1547,11 +1547,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.89</v>
+        <v>4.52</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>664</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1571,57 +1571,57 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>16:00-28:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>16:00-28:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>02-336-1447</t>
+          <t>0507-1338-4681</t>
         </is>
       </c>
     </row>
@@ -1647,11 +1647,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.52</v>
+        <v>4.89</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>1410</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>135</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2138,30 +2138,30 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>홍대공감</t>
+          <t>연술집</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4.83</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>613</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로17길 10 2F</t>
+          <t>서울 마포구 연희로1길 36 2층 201호</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-24:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-24:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-24:00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-24:00</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-25:00</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-25:00</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-24:00</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2231,19 +2231,19 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0507-1319-1675</t>
+          <t>0507-1358-3675</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>연술집</t>
+          <t>홍대공감</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>서울 마포구 연희로1길 36 2층 201호</t>
+          <t>서울 마포구 와우산로17길 10 2F</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>15:00-24:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>15:00-24:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>15:00-24:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>15:00-24:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>15:00-25:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>15:00-25:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>15:00-24:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0507-1358-3675</t>
+          <t>0507-1319-1675</t>
         </is>
       </c>
     </row>
@@ -2347,86 +2347,86 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.83</v>
+        <v>0</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>463</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>서울 마포구 연희로1길 36 2층 201호</t>
+          <t>서울 마포구 동교로32길 19 3층</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-24:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-24:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-24:00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-24:00</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-26:00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-26:00</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-24:00</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>702</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2551,12 +2551,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>702</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로21길 26 2층</t>
+          <t>서울 마포구 홍익로3길 44 2층</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2638,140 +2638,140 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>지하102호 1호점</t>
+          <t>동동포차DDPC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4.72</v>
+        <v>4.7</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>504</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
+          <t>서울 마포구 독막로3길 30 1층</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>15:00-27:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>15:00-27:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>15:00-27:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0507-1308-8648</t>
+          <t>02-336-0358</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>딤</t>
+          <t>힉스</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4.72</v>
+        <v>4.7</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>504</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
+          <t>서울 마포구 동교로32길 7 2층 Higgs</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>19:30-24:00</t>
+          <t>18:00-25:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>18:00-25:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2781,187 +2781,187 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>19:30-24:00</t>
+          <t>18:00-25:00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>19:30-24:00</t>
+          <t>18:00-25:00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>19:30-24:00</t>
+          <t>18:00-25:00</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>18:00-25:00</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>17:00-23:00</t>
+          <t>18:00-24:00</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>010-4895-3005</t>
+          <t>0507-1448-1996</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>홍옥 상수점</t>
+          <t>하루</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4.91</v>
+        <v>4.88</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>228</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로14길 4 2층</t>
+          <t>서울 마포구 와우산로32길 31-8 1층</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>19:00-26:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>19:00-26:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>19:00-26:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>19:00-26:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>19:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>02:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>19:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>02:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>19:00-26:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0507-1307-7571</t>
+          <t>0507-1344-6512</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>동동포차DDPC</t>
+          <t>심야식당밤</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4.91</v>
+        <v>4.79</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>488</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로14길 4 2층</t>
+          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -3031,89 +3031,89 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>02-336-0358</t>
+          <t>0507-1383-3321</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>심야식당밤</t>
+          <t>깊은숲</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4.7</v>
+        <v>4.79</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>488</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 30 1층</t>
+          <t>서울 마포구 독막로 27</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>휴무</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>18:00-25:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>18:00-25:00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>18:00-25:00</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>18:00-26:00</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
           <t>17:00-26:00</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>17:00-26:00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>17:00-26:00</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>17:00-26:00</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>17:00-26:00</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>17:00-26:00</t>
-        </is>
-      </c>
       <c r="Q27" t="inlineStr">
         <is>
           <t>정보 없음</t>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -3131,119 +3131,119 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0507-1383-3321</t>
+          <t>0507-1410-6865</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>조선시대</t>
+          <t>지하102호 1호점</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4.79</v>
+        <v>4.72</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>666</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
+          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>15:00-27:00</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>15:00-27:00</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>15:00-27:00</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0507-1478-1045</t>
+          <t>0507-1308-8648</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>깊은숲</t>
+          <t>조선시대</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3251,17 +3251,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>695</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 홍익로3길 44 지하1층</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>18:00-25:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>18:00-25:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3291,7 +3291,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>18:00-25:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>18:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3321,7 +3321,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>17:00-24:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3331,14 +3331,14 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1478-1045</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>몽주방</t>
+          <t>가로수포차</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3347,21 +3347,21 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4.72</v>
+        <v>0</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>318</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 잔다리로6길 34-13 가로수포차</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3431,14 +3431,14 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0507-1364-7875</t>
+          <t>010-7357-2551</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>가로수포차</t>
+          <t>몽주방</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3451,17 +3451,17 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>732</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>서울 마포구 잔다리로6길 34-13 가로수포차</t>
+          <t>서울 마포구 독막로7길 20 1층</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3531,19 +3531,19 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>010-7357-2551</t>
+          <t>0507-1364-7875</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>개화기요정</t>
+          <t>사카바 토리야</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3551,17 +3551,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>825</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로7길 22 개화기요정</t>
+          <t>서울 마포구 독막로3길 38 2층</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3571,57 +3571,57 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-26:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-26:00</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-26:00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3631,37 +3631,37 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>02-325-6677</t>
+          <t>0507-1353-4741</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>사카바 토리야</t>
+          <t>낮달</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>841</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 38 2층</t>
+          <t>서울 마포구 독막로5길 8 1층 낮달</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3671,57 +3671,57 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>18:00-26:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>18:00-26:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>18:00-26:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>14:00-26:00</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>14:00-25:00</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3731,114 +3731,114 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0507-1353-4741</t>
+          <t>0507-1312-0597</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>금호동매운닭발</t>
+          <t>심야식당하스</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>841</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29바길 11-3 지하1층 금호동매운닭발</t>
+          <t>서울 마포구 연희로1길 19</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>17:00-26:00</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
           <t>16:00-26:00</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>16:00-26:00</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>16:00-26:00</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>16:00-26:00</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>16:00-26:00</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>16:00-26:00</t>
-        </is>
-      </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>16:00-25:00</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0507-1461-7630</t>
+          <t>070-8888-0198</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>낮달</t>
+          <t>금호동매운닭발</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3847,191 +3847,191 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4.37</v>
+        <v>4.45</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>736</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 8 1층 낮달</t>
+          <t>서울 마포구 와우산로29바길 11-3 지하1층 금호동매운닭발</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>15:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>15:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>15:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>15:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>14:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>14:00-25:00</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0507-1312-0597</t>
+          <t>0507-1461-7630</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>심야식당하스</t>
+          <t>디퍼 루프탑</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4.37</v>
+        <v>4.49</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>887</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 8 1층 낮달</t>
+          <t>서울 마포구 와우산로38길 4 2층</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>15:00-25:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>15:00-25:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>15:00-25:00</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>15:00-25:00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>12:00-26:00</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>070-8888-0198</t>
+          <t>0507-1391-0321</t>
         </is>
       </c>
     </row>
@@ -4047,86 +4047,86 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.45</v>
+        <v>4.49</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>887</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>서울 마포구 연희로1길 19</t>
+          <t>서울 마포구 와우산로21길 31 2층</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00-24:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>09:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00-24:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>09:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00-24:00</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>09:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00-24:00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>09:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00-24:00</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>09:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00-24:00</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>09:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00-24:00</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>09:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -4138,107 +4138,107 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>디퍼 루프탑</t>
+          <t>우규</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.49</v>
+        <v>4.93</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>629</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로38길 4 2층</t>
+          <t>서울 마포구 독막로3길 21 1.5층</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>15:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>15:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>15:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>15:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>15:00-26:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>12:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0507-1391-0321</t>
+          <t>0507-1448-3465</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>몽주막</t>
+          <t>개화기요정</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4247,16 +4247,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4.49</v>
+        <v>4.93</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>629</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로38길 4 2층</t>
+          <t>서울 마포구 독막로7길 22 개화기요정</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4331,107 +4331,107 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>0507-1353-3844</t>
+          <t>02-325-6677</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>우규</t>
+          <t>몽주막</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4.93</v>
+        <v>0</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 21 1.5층</t>
+          <t>서울 마포구 독막로9길 12 1층 몽주막</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>16:00-25:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>16:00-25:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>16:00-25:00</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>16:00-25:00</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-26:30</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:30-25:00</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>0507-1448-3465</t>
+          <t>0507-1353-3844</t>
         </is>
       </c>
     </row>
@@ -4447,21 +4447,21 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4.93</v>
+        <v>4.74</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>598</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 21 1.5층</t>
+          <t>서울 마포구 와우산로21길 36-12</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>16:00-23:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>16:00-23:00</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>16:00-23:00</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>16:00-23:00</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4556,77 +4556,77 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로21길 36-12</t>
+          <t>서울 마포구 독막로3길 51 술생술사</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -4756,77 +4756,77 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로34길 12</t>
+          <t>서울 마포구 와우산로17길 5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-30:00</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-30:00</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -4838,40 +4838,40 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>합정유리</t>
+          <t>역전포장마차 홍대점</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>4.64</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>955</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 99-11 2층</t>
+          <t>서울 마포구 양화로 183 지하1층</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4881,97 +4881,97 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>14:00-25:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>14:00-25:00</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>0507-1352-2195</t>
+          <t>0507-1376-3340</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>서플라이디팟</t>
+          <t>합정유리</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4.86</v>
+        <v>4.64</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>955</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>서울 마포구 잔다리로 4 2층</t>
+          <t>서울 마포구 양화로6길 99-11 2층</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4981,69 +4981,69 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>14:00-25:00</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>14:00-25:00</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>010-5642-9775</t>
+          <t>0507-1352-2195</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>역전포장마차 홍대점</t>
+          <t>서플라이디팟</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0507-1376-3340</t>
+          <t>0507-1371-9775</t>
         </is>
       </c>
     </row>
@@ -5147,16 +5147,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4.64</v>
+        <v>4.86</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>880</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로 183 지하1층</t>
+          <t>서울 마포구 연희로1길 23</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5238,107 +5238,107 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>사람사는이야기442</t>
+          <t>별그리는바다</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4.45</v>
+        <v>0</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>338</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로5길 52 사사이</t>
+          <t>서울 마포구 어울마당로5길 17 1층</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>16:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>16:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>16:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>16:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>16:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>15:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>15:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>0507-1337-0442</t>
+          <t>0507-1361-4011</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>모양</t>
+          <t>사람사는이야기442</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5356,89 +5356,89 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 24-9 1층</t>
+          <t>서울 마포구 어울마당로5길 52 사사이</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>16:30-29:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>16:30-29:00</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>16:30-29:00</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>16:30-29:00</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>16:30-29:00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>15:30-29:00</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>15:30-29:00</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>0507-1383-1032</t>
+          <t>0507-1337-0442</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>별그리는바다</t>
+          <t>지하102호 2호점</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5447,21 +5447,21 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>616</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로5길 17 1층</t>
+          <t>서울 마포구 독막로3길 39 1층</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -5491,7 +5491,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-28:00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-28:00</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -5531,14 +5531,14 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>0507-1361-4011</t>
+          <t>0507-1388-8648</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>무채색 숲</t>
+          <t>모양</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5547,91 +5547,91 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>4.96</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>480</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 10 지하1층 1호</t>
+          <t>서울 마포구 독막로3길 24-9 1층</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>18:00-27:00</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>18:00-27:00</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>18:00-27:00</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>18:00-27:00</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>18:00-27:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>18:00-29:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>18:00-27:00</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>0507-1377-4046</t>
+          <t>0507-1383-1032</t>
         </is>
       </c>
     </row>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>446</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -5738,7 +5738,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>하나킨</t>
+          <t>아톰술집</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5751,99 +5751,99 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>446</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 8 1층</t>
+          <t>서울 마포구 와우산로18길 6 2층 아톰술집</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>16:00-25:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>0507-1322-4213</t>
+          <t>0507-1466-1718</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>밤말</t>
+          <t>무채색 숲</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -5851,287 +5851,287 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>226</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 220-5 1.5층</t>
+          <t>서울 마포구 동교로32길 10 지하1층 1호</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>18:00-27:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>18:00-27:00</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>18:00-27:00</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>18:00-27:00</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>18:00-27:00</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>18:00-29:00</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>14:00-24:00</t>
+          <t>18:00-27:00</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>0507-1313-5446</t>
+          <t>0507-1377-4046</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>김씨육면</t>
+          <t>백팩커스파티&amp;빨래살롱</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>국수</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4.66</v>
+        <v>0</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 28-7 1층</t>
+          <t>서울 마포구 월드컵로8길 37-7 1층 카페</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>11:30-21:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>11:30-21:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>11:30-21:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>11:30-23:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>11:30-23:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>11:30-23:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>11:30-17:00</t>
+          <t>09:30-25:00</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>15:30 - 17:00 브레이크타임</t>
+          <t>14:00 - 16:00 브레이크타임</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>0507-1336-0313</t>
+          <t>0507-1403-2190</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>홍대씨부엉</t>
+          <t>토끼다이닝</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>떡볶이</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4.66</v>
+        <v>0</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>163</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로21길 28-6</t>
+          <t>서울 마포구 독막로5길 5 2층</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-26:00</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-26:00</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>11:00-24:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>0507-1378-5253</t>
+          <t>0507-1375-2431</t>
         </is>
       </c>
     </row>
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6438,7 +6438,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>붉은낙타</t>
+          <t>배터리88 2호점 홍대입구역점</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6451,199 +6451,199 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>941</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>서울 마포구 잔다리로 20-11 1층 붉은낙타</t>
+          <t>서울 마포구 어울마당로 134 1층</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>17:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>17:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>070-4833-5965</t>
+          <t>0507-1371-9555</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>배터리88 2호점 홍대입구역점</t>
+          <t>맥주왕명주</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>4.73</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로 134 1층</t>
+          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>0507-1371-9555</t>
+          <t>0507-1332-9305</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>맥주왕명주</t>
+          <t>붉은낙타</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -6656,82 +6656,82 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+          <t>서울 마포구 잔다리로 20-11 1층 붉은낙타</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>03:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>0507-1332-9305</t>
+          <t>070-4833-5965</t>
         </is>
       </c>
     </row>
@@ -6747,21 +6747,21 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4.73</v>
+        <v>4.45</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로 147-1 동원빌딩 1층</t>
+          <t>서울 마포구 서강로9길 60 산울림1992</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -6771,57 +6771,57 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>15:00-23:00</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -6838,7 +6838,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>썬키친</t>
+          <t>훈민정음 서울합정점</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6851,17 +6851,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 50 2층</t>
+          <t>서울 마포구 서강로9길 60 산울림1992</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -6871,57 +6871,57 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -6931,14 +6931,14 @@
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>0507-1338-4681</t>
+          <t>02-336-1447</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>훈민정음 서울합정점</t>
+          <t>썬키친</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6947,21 +6947,21 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4.89</v>
+        <v>4.52</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>664</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로7길 21</t>
+          <t>서울 마포구 양화로6길 50 2층</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -6971,57 +6971,57 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>16:00-28:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>16:00-28:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>02-336-1447</t>
+          <t>0507-1338-4681</t>
         </is>
       </c>
     </row>
@@ -7047,11 +7047,11 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4.52</v>
+        <v>4.89</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>1410</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -7251,7 +7251,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>135</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -7538,30 +7538,30 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>홍대공감</t>
+          <t>연술집</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>4.83</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>834</t>
+          <t>613</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로17길 10 2F</t>
+          <t>서울 마포구 연희로1길 36 2층 201호</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-24:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-24:00</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-24:00</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-24:00</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-25:00</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-25:00</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -7621,7 +7621,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-24:00</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -7631,19 +7631,19 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>0507-1319-1675</t>
+          <t>0507-1358-3675</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>연술집</t>
+          <t>홍대공감</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -7656,12 +7656,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>서울 마포구 연희로1길 36 2층 201호</t>
+          <t>서울 마포구 와우산로17길 10 2F</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>15:00-24:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>15:00-24:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>15:00-24:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>15:00-24:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>15:00-25:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>15:00-25:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>15:00-24:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>0507-1358-3675</t>
+          <t>0507-1319-1675</t>
         </is>
       </c>
     </row>
@@ -7747,11 +7747,11 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.83</v>
+        <v>0</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>463</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -7851,7 +7851,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>702</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -7951,7 +7951,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>702</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -8038,140 +8038,140 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>지하102호 1호점</t>
+          <t>동동포차DDPC</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4.72</v>
+        <v>4.7</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>504</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
+          <t>서울 마포구 독막로3길 30 1층</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>15:00-27:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>15:00-27:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>15:00-27:00</t>
+          <t>17:00-27:00</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>0507-1308-8648</t>
+          <t>02-336-0358</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>딤</t>
+          <t>힉스</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4.72</v>
+        <v>4.7</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>504</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29길 48-5 2층</t>
+          <t>서울 마포구 동교로32길 7 2층 Higgs</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>19:30-24:00</t>
+          <t>18:00-25:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>18:00-25:00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -8181,187 +8181,187 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>19:30-24:00</t>
+          <t>18:00-25:00</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>19:30-24:00</t>
+          <t>18:00-25:00</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>19:30-24:00</t>
+          <t>18:00-25:00</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>18:00-25:00</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>17:00-23:00</t>
+          <t>18:00-24:00</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>010-4895-3005</t>
+          <t>0507-1448-1996</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>홍옥 상수점</t>
+          <t>하루</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4.91</v>
+        <v>4.88</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>228</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로14길 4 2층</t>
+          <t>서울 마포구 와우산로32길 31-8 1층</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>19:00-26:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>19:00-26:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>19:00-26:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>19:00-26:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>19:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>02:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>19:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>02:30</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>19:00-26:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>0507-1307-7571</t>
+          <t>0507-1344-6512</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>동동포차DDPC</t>
+          <t>심야식당밤</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4.91</v>
+        <v>4.79</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>488</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 30 1층</t>
+          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>17:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>17:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>17:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>17:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>17:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>17:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>17:00-27:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -8431,89 +8431,89 @@
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>02-336-0358</t>
+          <t>0507-1383-3321</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>심야식당밤</t>
+          <t>깊은숲</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4.7</v>
+        <v>4.79</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>488</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29바길 16 반지층 심야식당밤</t>
+          <t>서울 마포구 독막로 27</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>휴무</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>18:00-25:00</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>18:00-25:00</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>18:00-25:00</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>18:00-26:00</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
           <t>17:00-26:00</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>17:00-26:00</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>17:00-26:00</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>17:00-26:00</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>17:00-26:00</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>정보 없음</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>17:00-26:00</t>
-        </is>
-      </c>
       <c r="Q81" t="inlineStr">
         <is>
           <t>정보 없음</t>
@@ -8521,7 +8521,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -8531,119 +8531,119 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>0507-1383-3321</t>
+          <t>0507-1410-6865</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>조선시대</t>
+          <t>지하102호 1호점</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4.79</v>
+        <v>4.72</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>666</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>서울 마포구 홍익로3길 44 지하1층</t>
+          <t>서울 마포구 양화로6길 57-22 지층 102호</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>15:00-27:00</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>15:00-27:00</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>17:30-28:00</t>
+          <t>15:00-27:00</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>0507-1478-1045</t>
+          <t>0507-1308-8648</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>깊은숲</t>
+          <t>조선시대</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -8651,17 +8651,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>695</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로 27</t>
+          <t>서울 마포구 홍익로3길 44 지하1층</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>18:00-25:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -8681,7 +8681,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>18:00-25:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -8691,7 +8691,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>18:00-25:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>18:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>17:00-24:00</t>
+          <t>17:30-28:00</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -8731,14 +8731,14 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>0507-1410-6865</t>
+          <t>0507-1478-1045</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>몽주방</t>
+          <t>가로수포차</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -8747,21 +8747,21 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4.72</v>
+        <v>0</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>318</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로7길 20 1층</t>
+          <t>서울 마포구 잔다리로6길 34-13 가로수포차</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>16:00-26:30</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>16:00-26:30</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -8781,7 +8781,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>16:00-26:30</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>16:00-26:30</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>16:00-26:30</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>16:00-26:30</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>16:00-26:30</t>
+          <t>17:00-26:30</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -8831,14 +8831,14 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>0507-1364-7875</t>
+          <t>010-7357-2551</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>가로수포차</t>
+          <t>몽주방</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -8851,17 +8851,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>732</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>서울 마포구 잔다리로6길 34-13 가로수포차</t>
+          <t>서울 마포구 독막로7길 20 1층</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>17:00-26:30</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -8931,19 +8931,19 @@
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>010-7357-2551</t>
+          <t>0507-1364-7875</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>개화기요정</t>
+          <t>사카바 토리야</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -8951,17 +8951,17 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>825</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로7길 22 개화기요정</t>
+          <t>서울 마포구 독막로3길 38 2층</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -8971,57 +8971,57 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-26:00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-26:00</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>18:00-26:00</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:30</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -9031,37 +9031,37 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>02-325-6677</t>
+          <t>0507-1353-4741</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>사카바 토리야</t>
+          <t>낮달</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>825</t>
+          <t>841</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 38 2층</t>
+          <t>서울 마포구 독막로5길 8 1층 낮달</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -9071,57 +9071,57 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>18:00-26:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>18:00-26:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>18:00-26:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>14:00-26:00</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>14:00-25:00</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -9131,114 +9131,114 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>0507-1353-4741</t>
+          <t>0507-1312-0597</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>금호동매운닭발</t>
+          <t>심야식당하스</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>841</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로29바길 11-3 지하1층 금호동매운닭발</t>
+          <t>서울 마포구 연희로1길 19</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>17:00-25:00</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>17:00-26:00</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
           <t>16:00-26:00</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>16:00-26:00</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>16:00-26:00</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>16:00-26:00</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>16:00-26:00</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>16:00-26:00</t>
-        </is>
-      </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>16:00-25:00</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>0507-1461-7630</t>
+          <t>070-8888-0198</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>낮달</t>
+          <t>금호동매운닭발</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -9247,191 +9247,191 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4.37</v>
+        <v>4.45</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>736</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로5길 8 1층 낮달</t>
+          <t>서울 마포구 와우산로29바길 11-3 지하1층 금호동매운닭발</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>15:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>15:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>15:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>15:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>14:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>14:00-25:00</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>0507-1312-0597</t>
+          <t>0507-1461-7630</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>심야식당하스</t>
+          <t>디퍼 루프탑</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4.37</v>
+        <v>4.49</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>841</t>
+          <t>887</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>서울 마포구 연희로1길 19</t>
+          <t>서울 마포구 와우산로38길 4 2층</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>15:00-25:00</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>15:00-25:00</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>15:00-25:00</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>15:00-25:00</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>12:00-26:00</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>16:00-25:00</t>
+          <t>12:00-24:00</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>070-8888-0198</t>
+          <t>0507-1391-0321</t>
         </is>
       </c>
     </row>
@@ -9447,11 +9447,11 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4.45</v>
+        <v>4.49</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>887</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -9538,107 +9538,107 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>디퍼 루프탑</t>
+          <t>우규</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4.49</v>
+        <v>4.93</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>629</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>서울 마포구 와우산로38길 4 2층</t>
+          <t>서울 마포구 독막로3길 21 1.5층</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>15:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>15:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>15:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>15:00-25:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>15:00-26:00</t>
+          <t>17:00-26:00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>12:00-26:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>12:00-24:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>0507-1391-0321</t>
+          <t>0507-1448-3465</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>몽주막</t>
+          <t>개화기요정</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -9647,191 +9647,191 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4.49</v>
+        <v>4.93</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>629</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로9길 12 1층 몽주막</t>
+          <t>서울 마포구 독막로7길 22 개화기요정</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>16:00-25:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>16:00-25:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>16:00-25:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>16:00-25:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>16:00-26:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>15:00-26:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>15:30-25:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>0507-1353-3844</t>
+          <t>02-325-6677</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>우규</t>
+          <t>몽주막</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4.93</v>
+        <v>0</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>267</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 21 1.5층</t>
+          <t>서울 마포구 독막로9길 12 1층 몽주막</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>16:00-25:00</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>16:00-25:00</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>16:00-25:00</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>16:00-25:00</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>16:00-26:30</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:00-26:30</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>15:30-25:00</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>0507-1448-3465</t>
+          <t>0507-1353-3844</t>
         </is>
       </c>
     </row>
@@ -9847,11 +9847,11 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4.93</v>
+        <v>4.74</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>598</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -10238,40 +10238,40 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>합정유리</t>
+          <t>역전포장마차 홍대점</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>4.64</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>955</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로6길 99-11 2층</t>
+          <t>서울 마포구 양화로 183 지하1층</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -10281,97 +10281,97 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>14:00-25:00</t>
+          <t>16:00-26:00</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>14:00-25:00</t>
+          <t>16:00-24:00</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>0507-1352-2195</t>
+          <t>0507-1376-3340</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>서플라이디팟</t>
+          <t>합정유리</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4.86</v>
+        <v>4.64</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>955</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>서울 마포구 잔다리로 4 2층</t>
+          <t>서울 마포구 양화로6길 99-11 2층</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>휴무</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -10381,69 +10381,69 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>14:00-25:00</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>17:00-28:00</t>
+          <t>14:00-25:00</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>010-5642-9775</t>
+          <t>0507-1352-2195</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>역전포장마차 홍대점</t>
+          <t>서플라이디팟</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -10456,12 +10456,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>서울 마포구 양화로 183 지하1층</t>
+          <t>서울 마포구 잔다리로 4 2층</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>16:00-24:00</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>16:00-24:00</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -10481,7 +10481,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>16:00-24:00</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>16:00-24:00</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -10501,7 +10501,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>16:00-24:00</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -10511,7 +10511,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>16:00-24:00</t>
+          <t>17:00-28:00</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -10531,7 +10531,7 @@
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>0507-1376-3340</t>
+          <t>0507-1371-9775</t>
         </is>
       </c>
     </row>
@@ -10547,11 +10547,11 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4.64</v>
+        <v>4.86</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>956</t>
+          <t>880</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -10638,107 +10638,107 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>사람사는이야기442</t>
+          <t>별그리는바다</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>4.45</v>
+        <v>0</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>338</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로5길 52 사사이</t>
+          <t>서울 마포구 어울마당로5길 17 1층</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>16:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>16:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>16:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>16:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>16:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>15:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>15:30-29:00</t>
+          <t>16:00-29:00</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>0507-1337-0442</t>
+          <t>0507-1361-4011</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>모양</t>
+          <t>사람사는이야기442</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -10756,89 +10756,89 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>서울 마포구 독막로3길 24-9 1층</t>
+          <t>서울 마포구 어울마당로5길 52 사사이</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>17:00-24:00</t>
+          <t>16:30-29:00</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>17:00-24:00</t>
+          <t>16:30-29:00</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>17:00-24:00</t>
+          <t>16:30-29:00</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>17:00-24:00</t>
+          <t>16:30-29:00</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>16:30-29:00</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>15:30-29:00</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>17:00-24:00</t>
+          <t>15:30-29:00</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>0507-1383-1032</t>
+          <t>0507-1337-0442</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>별그리는바다</t>
+          <t>지하102호 2호점</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -10847,21 +10847,21 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>616</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>서울 마포구 어울마당로5길 17 1층</t>
+          <t>서울 마포구 독막로3길 39 1층</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -10881,7 +10881,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -10891,7 +10891,7 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-28:00</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-28:00</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>16:00-29:00</t>
+          <t>15:00-26:00</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -10931,14 +10931,14 @@
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>0507-1361-4011</t>
+          <t>0507-1388-8648</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>무채색 숲</t>
+          <t>모양</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -10947,91 +10947,91 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>4.96</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>480</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 10 지하1층 1호</t>
+          <t>서울 마포구 독막로3길 24-9 1층</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>18:00-27:00</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>18:00-27:00</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>18:00-27:00</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>18:00-27:00</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>18:00-27:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>18:00-29:00</t>
+          <t>17:00-25:00</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>18:00-27:00</t>
+          <t>17:00-24:00</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>0507-1377-4046</t>
+          <t>0507-1383-1032</t>
         </is>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>446</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -11138,7 +11138,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>하나킨</t>
+          <t>아톰술집</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -11151,99 +11151,99 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>446</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로32길 8 1층</t>
+          <t>서울 마포구 와우산로18길 6 2층 아톰술집</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>17:00-25:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>16:00-26:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>16:00-25:00</t>
+          <t>17:00-29:00</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>04:15</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>0507-1322-4213</t>
+          <t>0507-1466-1718</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>밤말</t>
+          <t>무채색 숲</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -11251,87 +11251,87 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>226</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 220-5 1.5층</t>
+          <t>서울 마포구 동교로32길 10 지하1층 1호</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>휴무</t>
+          <t>18:00-27:00</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>18:00-27:00</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>18:00-27:00</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>18:00-27:00</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>18:00-27:00</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>17:00-26:00</t>
+          <t>18:00-29:00</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>14:00-24:00</t>
+          <t>18:00-27:00</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>0507-1313-5446</t>
+          <t>0507-1377-4046</t>
         </is>
       </c>
     </row>

--- a/excel/hongdae_processed.xlsx
+++ b/excel/hongdae_processed.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -658,7 +658,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1208,7 +1208,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1318,7 +1318,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1538,7 +1538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1758,7 +1758,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1868,7 +1868,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1978,7 +1978,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2418,7 +2418,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2528,7 +2528,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2748,7 +2748,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2858,7 +2858,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3078,7 +3078,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3188,7 +3188,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3298,7 +3298,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3408,7 +3408,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3518,7 +3518,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3628,7 +3628,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3738,7 +3738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3848,7 +3848,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3958,7 +3958,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4068,7 +4068,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4178,7 +4178,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4398,7 +4398,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4508,7 +4508,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4618,7 +4618,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4728,7 +4728,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4838,7 +4838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4948,7 +4948,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5058,7 +5058,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5168,7 +5168,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5278,7 +5278,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5388,7 +5388,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5498,7 +5498,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5608,7 +5608,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5718,7 +5718,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5828,7 +5828,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5938,7 +5938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6048,7 +6048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6158,7 +6158,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6268,7 +6268,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6378,7 +6378,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6488,7 +6488,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6598,7 +6598,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6708,7 +6708,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6818,7 +6818,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6928,7 +6928,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -7038,7 +7038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7148,7 +7148,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7258,7 +7258,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7368,7 +7368,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7478,7 +7478,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -7588,7 +7588,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7698,7 +7698,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7808,7 +7808,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7918,7 +7918,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -8028,7 +8028,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -8138,7 +8138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -8248,7 +8248,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -8358,7 +8358,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -8468,7 +8468,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -8578,7 +8578,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -8688,7 +8688,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -8798,7 +8798,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -8908,7 +8908,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -9018,7 +9018,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -9128,7 +9128,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -9238,7 +9238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -9348,7 +9348,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -9458,7 +9458,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -9568,7 +9568,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -9678,7 +9678,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -9788,7 +9788,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -9898,7 +9898,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -10008,7 +10008,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -10118,7 +10118,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -10228,7 +10228,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -10338,7 +10338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -10448,7 +10448,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -10558,7 +10558,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -10668,7 +10668,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -10778,7 +10778,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -10888,7 +10888,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -10998,7 +10998,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -11108,7 +11108,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -11218,7 +11218,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -11328,7 +11328,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -11438,7 +11438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -11548,7 +11548,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -11658,7 +11658,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -11768,7 +11768,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -11878,7 +11878,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -11988,7 +11988,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -12098,7 +12098,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -12208,7 +12208,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -12318,7 +12318,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -12428,7 +12428,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -12538,7 +12538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -12648,7 +12648,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -12758,7 +12758,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -12868,7 +12868,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -12978,7 +12978,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -13088,7 +13088,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -13198,7 +13198,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -13308,7 +13308,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -13418,7 +13418,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -13528,7 +13528,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -13638,7 +13638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -13748,7 +13748,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -13858,7 +13858,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -13968,7 +13968,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -14078,7 +14078,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -14188,7 +14188,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -14298,7 +14298,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -14408,7 +14408,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -14518,7 +14518,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -14628,7 +14628,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -14738,7 +14738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -14848,7 +14848,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -14958,7 +14958,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -15068,7 +15068,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -15178,7 +15178,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -15288,7 +15288,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -15398,7 +15398,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -15508,7 +15508,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -15618,7 +15618,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -15728,7 +15728,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -15838,7 +15838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -15948,7 +15948,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -16058,7 +16058,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -16168,7 +16168,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -16278,7 +16278,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -16388,7 +16388,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -16498,7 +16498,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -16608,7 +16608,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -16718,7 +16718,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -16828,7 +16828,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -16938,7 +16938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -17048,7 +17048,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -17158,7 +17158,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -17268,7 +17268,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -17378,7 +17378,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -17488,7 +17488,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -17598,7 +17598,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -17708,7 +17708,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -17818,7 +17818,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -17928,7 +17928,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -18038,7 +18038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -18148,7 +18148,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -18258,7 +18258,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -18368,7 +18368,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -18478,7 +18478,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -18588,7 +18588,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -18698,7 +18698,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -18808,7 +18808,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -18918,7 +18918,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -19028,7 +19028,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -19138,7 +19138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -19248,7 +19248,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -19358,7 +19358,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -19468,7 +19468,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -19578,7 +19578,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -19688,7 +19688,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -19798,7 +19798,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -19908,7 +19908,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -20018,7 +20018,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -20128,7 +20128,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -20238,7 +20238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -20348,7 +20348,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -20458,7 +20458,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -20568,7 +20568,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -20678,7 +20678,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -20788,7 +20788,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -20898,7 +20898,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -21008,7 +21008,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -21118,7 +21118,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -21228,7 +21228,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -21338,7 +21338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -21448,7 +21448,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -21558,7 +21558,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -21668,7 +21668,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -21778,7 +21778,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -21888,7 +21888,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -21998,7 +21998,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -22108,7 +22108,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -22218,7 +22218,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -22328,7 +22328,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -22438,7 +22438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -22548,7 +22548,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -22658,7 +22658,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -22768,7 +22768,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -22878,7 +22878,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -22988,7 +22988,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -23098,7 +23098,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -23208,7 +23208,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -23318,7 +23318,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -23428,7 +23428,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -23538,7 +23538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -23648,7 +23648,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -23758,7 +23758,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -23868,7 +23868,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -23978,7 +23978,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -24088,7 +24088,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -24198,7 +24198,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -24308,7 +24308,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -24418,7 +24418,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -24528,7 +24528,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -24638,7 +24638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -24748,7 +24748,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -24858,7 +24858,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -24968,7 +24968,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -25078,7 +25078,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -25188,7 +25188,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -25298,7 +25298,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -25408,7 +25408,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -25518,7 +25518,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -25628,7 +25628,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -25738,7 +25738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -25848,7 +25848,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -25958,7 +25958,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -26068,7 +26068,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -26178,7 +26178,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -26288,7 +26288,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -26398,7 +26398,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -26508,7 +26508,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -26618,7 +26618,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -26728,7 +26728,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -26838,7 +26838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -26948,7 +26948,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -27058,7 +27058,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -27168,7 +27168,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -27278,7 +27278,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -27388,7 +27388,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -27498,7 +27498,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -27608,7 +27608,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -27718,7 +27718,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -27828,7 +27828,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -27938,7 +27938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -28048,7 +28048,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -28158,7 +28158,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -28268,7 +28268,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -28378,7 +28378,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -28488,7 +28488,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -28598,7 +28598,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -28708,7 +28708,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -28818,7 +28818,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2023-07-26 16:54:43</t>
+          <t>2023-08-07 10:46:29</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
